--- a/data/similarity_result.xlsx
+++ b/data/similarity_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>NDCG@1</t>
   </si>
@@ -135,16 +135,22 @@
     <t>lambda</t>
   </si>
   <si>
-    <t>LDA-10(textbook)</t>
+    <t>LDA(all books)</t>
   </si>
   <si>
     <t>Max</t>
   </si>
   <si>
-    <t>LDA-10(textbook+sigir)</t>
+    <t>LDA(2 books)</t>
+  </si>
+  <si>
+    <t>LDA(textbook+sigir)</t>
   </si>
   <si>
     <t>50-final.book.theta</t>
+  </si>
+  <si>
+    <t>50-final-2books.theta</t>
   </si>
   <si>
     <t>50-final.theta</t>
@@ -153,10 +159,16 @@
     <t>100-final.book.theta</t>
   </si>
   <si>
+    <t>100-final-2books.theta</t>
+  </si>
+  <si>
     <t>100-final.theta</t>
   </si>
   <si>
     <t>150-final.book.theta</t>
+  </si>
+  <si>
+    <t>150-final-2books.theta</t>
   </si>
   <si>
     <t>150-final.theta</t>
@@ -165,10 +177,16 @@
     <t>200-final.book.theta</t>
   </si>
   <si>
+    <t>200-final-2books.theta</t>
+  </si>
+  <si>
     <t>200-final.theta</t>
   </si>
   <si>
     <t>10-final.book.theta</t>
+  </si>
+  <si>
+    <t>10-final-2books.theta</t>
   </si>
   <si>
     <t>10-final.theta</t>
@@ -362,7 +380,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,14 +398,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -608,7 +618,7 @@
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -845,13 +855,13 @@
       <c r="N6" s="4" t="n">
         <v>0.235507246377</v>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="O6" s="1" t="n">
         <v>0.520637544654</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="0" t="n">
         <v>0.573341980548</v>
       </c>
-      <c r="Q6" s="6" t="n">
+      <c r="Q6" s="0" t="n">
         <v>0.621155606663</v>
       </c>
     </row>
@@ -889,7 +899,7 @@
       <c r="M7" s="4" t="n">
         <v>4000</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="1" t="n">
         <v>0.257246376812</v>
       </c>
       <c r="O7" s="4" t="n">
@@ -1109,10 +1119,10 @@
       <c r="G12" s="0" t="n">
         <v>9000</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="5" t="n">
         <v>0.344202898551</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="5" t="n">
         <v>0.563867984247</v>
       </c>
       <c r="J12" s="0" t="n">
@@ -2389,21 +2399,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0283400809717"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.59109311740891"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7975708502024"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.1336032388664"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4696356275304"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.69635627530364"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.59109311740891"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.59919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2419,6 +2435,7 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2434,8 +2451,23 @@
       <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>38</v>
       </c>
@@ -2457,38 +2489,50 @@
       <c r="G2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="n">
+        <v>0.45289855</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.5955319</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0.651719</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0.535969</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>0.463768115942</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>0.595508975472</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.664093417435</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>0.567861948</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">(C3+D3+E3)/3</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>0</v>
       </c>
@@ -2509,20 +2553,36 @@
         <v>0</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>0.286231884058</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.383991956276</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.418836662772</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">(I4+J4+K4)/3</f>
+        <v>0.363020167702</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
         <v>0.25652173913</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>0.351295993092</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>0.443181213539</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <f aca="false">AVERAGE(I4:K4)</f>
+      <c r="R4" s="0" t="n">
+        <f aca="false">AVERAGE(O4:Q4)</f>
         <v>0.350332981920333</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
         <v>0.1</v>
       </c>
@@ -2543,20 +2603,36 @@
         <v>0.1</v>
       </c>
       <c r="I5" s="0" t="n">
+        <v>0.264492753623</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.397984425754</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.442191666121</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">(I5+J5+K5)/3</f>
+        <v>0.368222948499333</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>0.352057985548</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>0.453225313005</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <f aca="false">AVERAGE(I5:K5)</f>
+      <c r="R5" s="0" t="n">
+        <f aca="false">AVERAGE(O5:Q5)</f>
         <v>0.368427766184333</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
         <v>0.2</v>
       </c>
@@ -2577,20 +2653,36 @@
         <v>0.2</v>
       </c>
       <c r="I6" s="0" t="n">
+        <v>0.253623188406</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.478598646134</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.511936321284</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">(I6+J6+K6)/3</f>
+        <v>0.414719385274667</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>0.34347826087</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>0.377444055176</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>0.471420525754</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <f aca="false">AVERAGE(I6:K6)</f>
+      <c r="R6" s="0" t="n">
+        <f aca="false">AVERAGE(O6:Q6)</f>
         <v>0.397447613933333</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
         <v>0.3</v>
       </c>
@@ -2611,20 +2703,36 @@
         <v>0.3</v>
       </c>
       <c r="I7" s="0" t="n">
+        <v>0.275362318841</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.511259143747</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.548888965385</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">(I7+J7+K7)/3</f>
+        <v>0.445170142657667</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>0.365217391304</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>0.409333153718</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>0.494296929527</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <f aca="false">AVERAGE(I7:K7)</f>
+      <c r="R7" s="0" t="n">
+        <f aca="false">AVERAGE(O7:Q7)</f>
         <v>0.422949158183</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
         <v>0.4</v>
       </c>
@@ -2645,20 +2753,36 @@
         <v>0.4</v>
       </c>
       <c r="I8" s="0" t="n">
+        <v>0.275362318841</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.503356845559</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.55640328924</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">(I8+J8+K8)/3</f>
+        <v>0.44504081788</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <v>0.365217391304</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>0.447118816607</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>0.541928444919</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <f aca="false">AVERAGE(I8:K8)</f>
+      <c r="R8" s="0" t="n">
+        <f aca="false">AVERAGE(O8:Q8)</f>
         <v>0.451421550943333</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -2679,20 +2803,36 @@
         <v>0.5</v>
       </c>
       <c r="I9" s="0" t="n">
+        <v>0.297101449275</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.542272885522</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.582963707162</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">(I9+J9+K9)/3</f>
+        <v>0.474112680653</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="0" t="n">
         <v>0.386956521739</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>0.476881213268</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>0.5883647265</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <f aca="false">AVERAGE(I9:K9)</f>
+      <c r="R9" s="0" t="n">
+        <f aca="false">AVERAGE(O9:Q9)</f>
         <v>0.484067487169</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
         <v>0.6</v>
       </c>
@@ -2713,20 +2853,36 @@
         <v>0.6</v>
       </c>
       <c r="I10" s="0" t="n">
+        <v>0.336956521739</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.551264240671</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.604004488201</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">(I10+J10+K10)/3</f>
+        <v>0.497408416870333</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>0.383333333333</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>0.53909555038</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>0.62125357112</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <f aca="false">AVERAGE(I10:K10)</f>
+      <c r="R10" s="0" t="n">
+        <f aca="false">AVERAGE(O10:Q10)</f>
         <v>0.514560818277667</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -2749,18 +2905,34 @@
       <c r="I11" s="0" t="n">
         <v>0.361594202899</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
+        <v>0.595531945333</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.627162647004</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">(I11+J11+K11)/3</f>
+        <v>0.528096265078667</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.361594202899</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>0.516977632171</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>0.612326233481</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <f aca="false">AVERAGE(I11:K11)</f>
+      <c r="R11" s="0" t="n">
+        <f aca="false">AVERAGE(O11:Q11)</f>
         <v>0.496966022850333</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
         <v>0.8</v>
       </c>
@@ -2781,20 +2953,36 @@
         <v>0.8</v>
       </c>
       <c r="I12" s="0" t="n">
+        <v>0.361594202899</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.595035356776</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.62785974578</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">(I12+J12+K12)/3</f>
+        <v>0.528163101818333</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>0.318115942029</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>0.553016276168</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>0.632887704585</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <f aca="false">AVERAGE(I12:K12)</f>
+      <c r="R12" s="0" t="n">
+        <f aca="false">AVERAGE(O12:Q12)</f>
         <v>0.501339974260667</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
         <v>0.9</v>
       </c>
@@ -2815,35 +3003,47 @@
         <v>0.9</v>
       </c>
       <c r="I13" s="0" t="n">
+        <v>0.38768115942</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.557786941558</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.597568029796</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">(I13+J13+K13)/3</f>
+        <v>0.514345376924667</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>0.344202898551</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>0.543918680945</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>0.639248429005</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <f aca="false">AVERAGE(I13:K13)</f>
+      <c r="R13" s="0" t="n">
+        <f aca="false">AVERAGE(O13:Q13)</f>
         <v>0.509123336167</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">(C14+D14+E14)/3</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
         <v>0</v>
       </c>
@@ -2864,20 +3064,36 @@
         <v>0</v>
       </c>
       <c r="I15" s="0" t="n">
+        <v>0.314492753623</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.500148711991</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.53946111752</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">(I15+J15+K15)/3</f>
+        <v>0.451367527711333</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <v>0.25652173913</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>0.411182235415</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>0.539800325221</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <f aca="false">AVERAGE(I15:K15)</f>
+      <c r="R15" s="0" t="n">
+        <f aca="false">AVERAGE(O15:Q15)</f>
         <v>0.402501433255333</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
         <v>0.1</v>
       </c>
@@ -2898,20 +3114,36 @@
         <v>0.1</v>
       </c>
       <c r="I16" s="0" t="n">
+        <v>0.401449275362</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.500148711991</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.53946111752</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">(I16+J16+K16)/3</f>
+        <v>0.480353034957667</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="0" t="n">
         <v>0.321739130435</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.446637230058</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.552952418047</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <f aca="false">AVERAGE(I16:K16)</f>
+      <c r="R16" s="0" t="n">
+        <f aca="false">AVERAGE(O16:Q16)</f>
         <v>0.44044292618</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
         <v>0.2</v>
       </c>
@@ -2932,20 +3164,36 @@
         <v>0.2</v>
       </c>
       <c r="I17" s="0" t="n">
+        <v>0.423188405797</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.524734141416</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.553146924041</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">(I17+J17+K17)/3</f>
+        <v>0.500356490418</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>0.386956521739</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.454660496285</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>0.567581247428</v>
       </c>
-      <c r="L17" s="0" t="n">
-        <f aca="false">AVERAGE(I17:K17)</f>
+      <c r="R17" s="0" t="n">
+        <f aca="false">AVERAGE(O17:Q17)</f>
         <v>0.469732755150667</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
         <v>0.3</v>
       </c>
@@ -2969,17 +3217,33 @@
         <v>0.408695652174</v>
       </c>
       <c r="J18" s="0" t="n">
+        <v>0.518673591824</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.558554185596</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">(I18+J18+K18)/3</f>
+        <v>0.495307809864667</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.408695652174</v>
+      </c>
+      <c r="P18" s="0" t="n">
         <v>0.490115490928</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>0.597702662835</v>
       </c>
-      <c r="L18" s="0" t="n">
-        <f aca="false">AVERAGE(I18:K18)</f>
+      <c r="R18" s="0" t="n">
+        <f aca="false">AVERAGE(O18:Q18)</f>
         <v>0.498837935312333</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
         <v>0.4</v>
       </c>
@@ -3000,20 +3264,36 @@
         <v>0.4</v>
       </c>
       <c r="I19" s="0" t="n">
+        <v>0.408695652174</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.505265134192</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.563241287471</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">(I19+J19+K19)/3</f>
+        <v>0.492400691279</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O19" s="0" t="n">
         <v>0.430434782609</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>0.504206526542</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>0.60895690851</v>
       </c>
-      <c r="L19" s="0" t="n">
-        <f aca="false">AVERAGE(I19:K19)</f>
+      <c r="R19" s="0" t="n">
+        <f aca="false">AVERAGE(O19:Q19)</f>
         <v>0.514532739220333</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3034,20 +3314,36 @@
         <v>0.5</v>
       </c>
       <c r="I20" s="0" t="n">
+        <v>0.386956521739</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.513611792443</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.569113495078</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">(I20+J20+K20)/3</f>
+        <v>0.48989393642</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="0" t="n">
         <v>0.426811594203</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>0.528620079052</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>0.627196471125</v>
       </c>
-      <c r="L20" s="0" t="n">
-        <f aca="false">AVERAGE(I20:K20)</f>
+      <c r="R20" s="0" t="n">
+        <f aca="false">AVERAGE(O20:Q20)</f>
         <v>0.527542714793333</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
         <v>0.6</v>
       </c>
@@ -3067,21 +3363,37 @@
       <c r="H21" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="0" t="n">
+        <v>0.361594202899</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.56526764295</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.614483557725</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">(I21+J21+K21)/3</f>
+        <v>0.513781801191333</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O21" s="1" t="n">
         <v>0.43768115942</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>0.559641644865</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>0.643655165956</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <f aca="false">AVERAGE(I21:K21)</f>
+      <c r="R21" s="1" t="n">
+        <f aca="false">AVERAGE(O21:Q21)</f>
         <v>0.546992656747</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -3101,21 +3413,37 @@
       <c r="H22" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="0" t="n">
+        <v>0.339855072464</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.590442291734</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0.651718547599</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">(I22+J22+K22)/3</f>
+        <v>0.527338637265667</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O22" s="1" t="n">
         <v>0.459420289855</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="P22" s="1" t="n">
         <v>0.586103197206</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="Q22" s="1" t="n">
         <v>0.658062357539</v>
       </c>
-      <c r="L22" s="1" t="n">
-        <f aca="false">AVERAGE(I22:K22)</f>
+      <c r="R22" s="1" t="n">
+        <f aca="false">AVERAGE(O22:Q22)</f>
         <v>0.5678619482</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
         <v>0.8</v>
       </c>
@@ -3135,21 +3463,37 @@
       <c r="H23" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="0" t="n">
+        <v>0.361594202899</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.555386548448</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.613974564871</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">(I23+J23+K23)/3</f>
+        <v>0.510318438739333</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O23" s="1" t="n">
         <v>0.463768115942</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>0.569089978574</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="Q23" s="1" t="n">
         <v>0.664093417435</v>
       </c>
-      <c r="L23" s="1" t="n">
-        <f aca="false">AVERAGE(I23:K23)</f>
+      <c r="R23" s="1" t="n">
+        <f aca="false">AVERAGE(O23:Q23)</f>
         <v>0.565650503983667</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
         <v>0.9</v>
       </c>
@@ -3170,35 +3514,47 @@
         <v>0.9</v>
       </c>
       <c r="I24" s="0" t="n">
+        <v>0.365942028986</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.559212738141</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.613596314964</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">(I24+J24+K24)/3</f>
+        <v>0.512917027363667</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O24" s="0" t="n">
         <v>0.409420289855</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>0.55805294841</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>0.645643003735</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <f aca="false">AVERAGE(I24:K24)</f>
+      <c r="R24" s="0" t="n">
+        <f aca="false">AVERAGE(O24:Q24)</f>
         <v>0.537705414</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <f aca="false">(C25+D25+E25)/3</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
         <v>0</v>
       </c>
@@ -3219,20 +3575,36 @@
         <v>0</v>
       </c>
       <c r="I26" s="0" t="n">
+        <v>0.307246376812</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.353929737069</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0.396324878813</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">(I26+J26+K26)/3</f>
+        <v>0.352500330898</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="0" t="n">
         <v>0.126086956522</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>0.403529240269</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>0.513780829793</v>
       </c>
-      <c r="L26" s="0" t="n">
-        <f aca="false">AVERAGE(I26:K26)</f>
+      <c r="R26" s="0" t="n">
+        <f aca="false">AVERAGE(O26:Q26)</f>
         <v>0.347799008861333</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
         <v>0.1</v>
       </c>
@@ -3253,20 +3625,36 @@
         <v>0.1</v>
       </c>
       <c r="I27" s="0" t="n">
+        <v>0.307246376812</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.393705743272</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.423724288452</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">(I27+J27+K27)/3</f>
+        <v>0.374892136178667</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O27" s="0" t="n">
         <v>0.126086956522</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>0.415564139609</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>0.528019789049</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <f aca="false">AVERAGE(I27:K27)</f>
+      <c r="R27" s="0" t="n">
+        <f aca="false">AVERAGE(O27:Q27)</f>
         <v>0.356556961726667</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
         <v>0.2</v>
       </c>
@@ -3287,20 +3675,36 @@
         <v>0.2</v>
       </c>
       <c r="I28" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.414339291978</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.460384502351</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">(I28+J28+K28)/3</f>
+        <v>0.391574598109667</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="0" t="n">
         <v>0.213043478261</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>0.415564139609</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>0.542856188103</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <f aca="false">AVERAGE(I28:K28)</f>
+      <c r="R28" s="0" t="n">
+        <f aca="false">AVERAGE(O28:Q28)</f>
         <v>0.390487935324333</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
         <v>0.3</v>
       </c>
@@ -3321,20 +3725,36 @@
         <v>0.3</v>
       </c>
       <c r="I29" s="0" t="n">
+        <v>0.321739130435</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.457817552848</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0.494761476641</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">(I29+J29+K29)/3</f>
+        <v>0.424772719974667</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O29" s="0" t="n">
         <v>0.278260869565</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>0.451019134252</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>0.557877755333</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <f aca="false">AVERAGE(I29:K29)</f>
+      <c r="R29" s="0" t="n">
+        <f aca="false">AVERAGE(O29:Q29)</f>
         <v>0.429052586383333</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
         <v>0.4</v>
       </c>
@@ -3358,17 +3778,33 @@
         <v>0.321739130435</v>
       </c>
       <c r="J30" s="0" t="n">
+        <v>0.487579949509</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0.525693664033</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">(I30+J30+K30)/3</f>
+        <v>0.445004247992333</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.321739130435</v>
+      </c>
+      <c r="P30" s="0" t="n">
         <v>0.475568216422</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>0.592354154883</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <f aca="false">AVERAGE(I30:K30)</f>
+      <c r="R30" s="0" t="n">
+        <f aca="false">AVERAGE(O30:Q30)</f>
         <v>0.46322050058</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3389,20 +3825,36 @@
         <v>0.5</v>
       </c>
       <c r="I31" s="0" t="n">
+        <v>0.296376811594</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.524300834232</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0.549550167552</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">(I31+J31+K31)/3</f>
+        <v>0.456742604459333</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O31" s="0" t="n">
         <v>0.386956521739</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>0.496839095538</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>0.598194472905</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <f aca="false">AVERAGE(I31:K31)</f>
+      <c r="R31" s="0" t="n">
+        <f aca="false">AVERAGE(O31:Q31)</f>
         <v>0.493996696727333</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
         <v>0.6</v>
       </c>
@@ -3423,20 +3875,36 @@
         <v>0.6</v>
       </c>
       <c r="I32" s="0" t="n">
+        <v>0.296376811594</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0.557551317775</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0.58970552066</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <f aca="false">(I32+J32+K32)/3</f>
+        <v>0.481211216676333</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O32" s="0" t="n">
         <v>0.383333333333</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>0.51309188029</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>0.611875960998</v>
       </c>
-      <c r="L32" s="0" t="n">
-        <f aca="false">AVERAGE(I32:K32)</f>
+      <c r="R32" s="0" t="n">
+        <f aca="false">AVERAGE(O32:Q32)</f>
         <v>0.502767058207</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -3457,20 +3925,36 @@
         <v>0.7</v>
       </c>
       <c r="I33" s="0" t="n">
+        <v>0.318115942029</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.558920535548</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0.617371983085</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">(I33+J33+K33)/3</f>
+        <v>0.498136153554</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O33" s="0" t="n">
         <v>0.383333333333</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="P33" s="1" t="n">
         <v>0.595508975472</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="Q33" s="0" t="n">
         <v>0.651472083461</v>
       </c>
-      <c r="L33" s="0" t="n">
-        <f aca="false">AVERAGE(I33:K33)</f>
+      <c r="R33" s="0" t="n">
+        <f aca="false">AVERAGE(O33:Q33)</f>
         <v>0.543438130755333</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
         <v>0.8</v>
       </c>
@@ -3491,20 +3975,36 @@
         <v>0.8</v>
       </c>
       <c r="I34" s="0" t="n">
+        <v>0.344202898551</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.570405236473</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0.595316986654</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">(I34+J34+K34)/3</f>
+        <v>0.503308373892667</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O34" s="0" t="n">
         <v>0.43115942029</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="P34" s="0" t="n">
         <v>0.574317846606</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="Q34" s="0" t="n">
         <v>0.645448520119</v>
       </c>
-      <c r="L34" s="0" t="n">
-        <f aca="false">AVERAGE(I34:K34)</f>
+      <c r="R34" s="0" t="n">
+        <f aca="false">AVERAGE(O34:Q34)</f>
         <v>0.550308595671667</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="n">
         <v>0.9</v>
       </c>
@@ -3525,35 +4025,47 @@
         <v>0.9</v>
       </c>
       <c r="I35" s="0" t="n">
+        <v>0.365942028986</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.571056904437</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0.60360792112</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">(I35+J35+K35)/3</f>
+        <v>0.513535618181</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O35" s="0" t="n">
         <v>0.344202898551</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="P35" s="0" t="n">
         <v>0.566566662006</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="Q35" s="0" t="n">
         <v>0.635112459425</v>
       </c>
-      <c r="L35" s="0" t="n">
-        <f aca="false">AVERAGE(I35:K35)</f>
+      <c r="R35" s="0" t="n">
+        <f aca="false">AVERAGE(O35:Q35)</f>
         <v>0.515294006660667</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <f aca="false">(C36+D36+E36)/3</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
         <v>0</v>
       </c>
@@ -3574,20 +4086,36 @@
         <v>0</v>
       </c>
       <c r="I37" s="0" t="n">
+        <v>0.38768115942</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.474310321868</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0.520678709365</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">(I37+J37+K37)/3</f>
+        <v>0.460890063551</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="0" t="n">
         <v>0.271014492754</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="P37" s="0" t="n">
         <v>0.35065058482</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="Q37" s="0" t="n">
         <v>0.469119992527</v>
       </c>
-      <c r="L37" s="0" t="n">
-        <f aca="false">AVERAGE(I37:K37)</f>
+      <c r="R37" s="0" t="n">
+        <f aca="false">AVERAGE(O37:Q37)</f>
         <v>0.363595023367</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="n">
         <v>0.1</v>
       </c>
@@ -3608,20 +4136,36 @@
         <v>0.1</v>
       </c>
       <c r="I38" s="0" t="n">
+        <v>0.38768115942</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.478321954981</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0.534957095157</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">(I38+J38+K38)/3</f>
+        <v>0.466986736519333</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O38" s="0" t="n">
         <v>0.292753623188</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="P38" s="0" t="n">
         <v>0.363072207219</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="Q38" s="0" t="n">
         <v>0.496742766179</v>
       </c>
-      <c r="L38" s="0" t="n">
-        <f aca="false">AVERAGE(I38:K38)</f>
+      <c r="R38" s="0" t="n">
+        <f aca="false">AVERAGE(O38:Q38)</f>
         <v>0.384189532195333</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="n">
         <v>0.2</v>
       </c>
@@ -3642,20 +4186,36 @@
         <v>0.2</v>
       </c>
       <c r="I39" s="0" t="n">
+        <v>0.43115942029</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.478321954981</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0.53616331821</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">(I39+J39+K39)/3</f>
+        <v>0.481881564493667</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O39" s="0" t="n">
         <v>0.292753623188</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="P39" s="0" t="n">
         <v>0.374181414182</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="Q39" s="0" t="n">
         <v>0.506218884516</v>
       </c>
-      <c r="L39" s="0" t="n">
-        <f aca="false">AVERAGE(I39:K39)</f>
+      <c r="R39" s="0" t="n">
+        <f aca="false">AVERAGE(O39:Q39)</f>
         <v>0.391051307295333</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="n">
         <v>0.3</v>
       </c>
@@ -3675,21 +4235,37 @@
       <c r="H40" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="1" t="n">
+        <v>0.452898550725</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.521129422415</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0.549206854233</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">(I40+J40+K40)/3</f>
+        <v>0.507744942457667</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O40" s="0" t="n">
         <v>0.292753623188</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="P40" s="0" t="n">
         <v>0.38920046699</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="Q40" s="0" t="n">
         <v>0.518736084743</v>
       </c>
-      <c r="L40" s="0" t="n">
-        <f aca="false">AVERAGE(I40:K40)</f>
+      <c r="R40" s="0" t="n">
+        <f aca="false">AVERAGE(O40:Q40)</f>
         <v>0.400230058307</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="n">
         <v>0.4</v>
       </c>
@@ -3710,20 +4286,36 @@
         <v>0.4</v>
       </c>
       <c r="I41" s="0" t="n">
+        <v>0.43115942029</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0.529152688642</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0.565730149481</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">(I41+J41+K41)/3</f>
+        <v>0.508680752804333</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O41" s="0" t="n">
         <v>0.314492753623</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="P41" s="0" t="n">
         <v>0.433889476821</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="Q41" s="0" t="n">
         <v>0.536292642833</v>
       </c>
-      <c r="L41" s="0" t="n">
-        <f aca="false">AVERAGE(I41:K41)</f>
+      <c r="R41" s="0" t="n">
+        <f aca="false">AVERAGE(O41:Q41)</f>
         <v>0.428224957759</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3744,20 +4336,36 @@
         <v>0.5</v>
       </c>
       <c r="I42" s="0" t="n">
+        <v>0.43115942029</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.571951514582</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0.592638289496</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">(I42+J42+K42)/3</f>
+        <v>0.531916408122667</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O42" s="0" t="n">
         <v>0.354347826087</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="P42" s="0" t="n">
         <v>0.47208290701</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="Q42" s="0" t="n">
         <v>0.583901512012</v>
       </c>
-      <c r="L42" s="0" t="n">
-        <f aca="false">AVERAGE(I42:K42)</f>
+      <c r="R42" s="0" t="n">
+        <f aca="false">AVERAGE(O42:Q42)</f>
         <v>0.470110748369667</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="n">
         <v>0.6</v>
       </c>
@@ -3778,20 +4386,36 @@
         <v>0.6</v>
       </c>
       <c r="I43" s="0" t="n">
+        <v>0.409420289855</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0.587065243872</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0.611422252683</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <f aca="false">(I43+J43+K43)/3</f>
+        <v>0.535969262136667</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O43" s="0" t="n">
         <v>0.376086956522</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="P43" s="0" t="n">
         <v>0.470647099973</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="Q43" s="0" t="n">
         <v>0.59758079061</v>
       </c>
-      <c r="L43" s="0" t="n">
-        <f aca="false">AVERAGE(I43:K43)</f>
+      <c r="R43" s="0" t="n">
+        <f aca="false">AVERAGE(O43:Q43)</f>
         <v>0.481438282368333</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -3801,31 +4425,48 @@
       <c r="D44" s="1" t="n">
         <v>0.632354679445</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="5" t="n">
         <v>0.724244631851</v>
       </c>
       <c r="F44" s="1" t="n">
         <f aca="false">(C44+D44+E44)/3</f>
         <v>0.607755325987667</v>
       </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="0" t="n">
         <v>0.7</v>
       </c>
       <c r="I44" s="0" t="n">
+        <v>0.38768115942</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0.584218944881</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0.618419824248</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">(I44+J44+K44)/3</f>
+        <v>0.530106642849667</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O44" s="0" t="n">
         <v>0.415942028986</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="P44" s="0" t="n">
         <v>0.535947852125</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="Q44" s="0" t="n">
         <v>0.63218416515</v>
       </c>
-      <c r="L44" s="0" t="n">
-        <f aca="false">AVERAGE(I44:K44)</f>
+      <c r="R44" s="0" t="n">
+        <f aca="false">AVERAGE(O44:Q44)</f>
         <v>0.528024682087</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="n">
         <v>0.8</v>
       </c>
@@ -3838,28 +4479,45 @@
       <c r="E45" s="1" t="n">
         <v>0.698627276747</v>
       </c>
-      <c r="F45" s="8" t="n">
+      <c r="F45" s="4" t="n">
         <f aca="false">(C45+D45+E45)/3</f>
         <v>0.603310558758333</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="G45" s="4"/>
+      <c r="H45" s="6" t="n">
         <v>0.8</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="6" t="n">
+        <v>0.38768115942</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>0.579041977645</v>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>0.616374093936</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">(I45+J45+K45)/3</f>
+        <v>0.527699077000333</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O45" s="0" t="n">
         <v>0.398550724638</v>
       </c>
-      <c r="J45" s="1" t="n">
+      <c r="P45" s="1" t="n">
         <v>0.589571432344</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="Q45" s="0" t="n">
         <v>0.650382887912</v>
       </c>
-      <c r="L45" s="0" t="n">
-        <f aca="false">AVERAGE(I45:K45)</f>
+      <c r="R45" s="0" t="n">
+        <f aca="false">AVERAGE(O45:Q45)</f>
         <v>0.546168348298</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="n">
         <v>0.9</v>
       </c>
@@ -3876,32 +4534,51 @@
         <f aca="false">(C46+D46+E46)/3</f>
         <v>0.554504950441333</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="6" t="n">
         <v>0.9</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="6" t="n">
         <v>0.38768115942</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="6" t="n">
+        <v>0.53896740611</v>
+      </c>
+      <c r="K46" s="6" t="n">
+        <v>0.584249968166</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">(I46+J46+K46)/3</f>
+        <v>0.503632844565333</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.38768115942</v>
+      </c>
+      <c r="P46" s="0" t="n">
         <v>0.584126988439</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="Q46" s="0" t="n">
         <v>0.650510813342</v>
       </c>
-      <c r="L46" s="0" t="n">
-        <f aca="false">AVERAGE(I46:K46)</f>
+      <c r="R46" s="0" t="n">
+        <f aca="false">AVERAGE(O46:Q46)</f>
         <v>0.540772987067</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="n">
         <v>0</v>
       </c>
@@ -3922,20 +4599,36 @@
         <v>0</v>
       </c>
       <c r="I49" s="0" t="n">
+        <v>0.0608695652174</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0.206729922749</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0.225454990491</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">(I49+J49+K49)/3</f>
+        <v>0.164351492819133</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="0" t="n">
         <v>0.184782608696</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="P49" s="0" t="n">
         <v>0.313106759315</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="Q49" s="0" t="n">
         <v>0.434546283877</v>
       </c>
-      <c r="L49" s="0" t="n">
-        <f aca="false">AVERAGE(I49:K49)</f>
+      <c r="R49" s="0" t="n">
+        <f aca="false">AVERAGE(O49:Q49)</f>
         <v>0.310811883962667</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="n">
         <v>0.1</v>
       </c>
@@ -3956,20 +4649,36 @@
         <v>0.1</v>
       </c>
       <c r="I50" s="0" t="n">
+        <v>0.213768115942</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0.304390221433</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0.326129351868</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">(I50+J50+K50)/3</f>
+        <v>0.281429229747667</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O50" s="0" t="n">
         <v>0.29347826087</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="P50" s="0" t="n">
         <v>0.476354203941</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="Q50" s="0" t="n">
         <v>0.556127207238</v>
       </c>
-      <c r="L50" s="0" t="n">
-        <f aca="false">AVERAGE(I50:K50)</f>
+      <c r="R50" s="0" t="n">
+        <f aca="false">AVERAGE(O50:Q50)</f>
         <v>0.441986557349667</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="n">
         <v>0.2</v>
       </c>
@@ -3990,20 +4699,36 @@
         <v>0.2</v>
       </c>
       <c r="I51" s="0" t="n">
+        <v>0.257246376812</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.32367692188</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0.33194539399</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">(I51+J51+K51)/3</f>
+        <v>0.304289564227333</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O51" s="0" t="n">
         <v>0.409420289855</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="P51" s="0" t="n">
         <v>0.507513849118</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="Q51" s="0" t="n">
         <v>0.577385474823</v>
       </c>
-      <c r="L51" s="0" t="n">
-        <f aca="false">AVERAGE(I51:K51)</f>
+      <c r="R51" s="0" t="n">
+        <f aca="false">AVERAGE(O51:Q51)</f>
         <v>0.498106537932</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="n">
         <v>0.3</v>
       </c>
@@ -4024,20 +4749,36 @@
         <v>0.3</v>
       </c>
       <c r="I52" s="0" t="n">
+        <v>0.278985507246</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0.288221927237</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0.318229529782</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">(I52+J52+K52)/3</f>
+        <v>0.295145654755</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O52" s="0" t="n">
         <v>0.365942028986</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="P52" s="0" t="n">
         <v>0.498209291572</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="Q52" s="0" t="n">
         <v>0.572849901755</v>
       </c>
-      <c r="L52" s="0" t="n">
-        <f aca="false">AVERAGE(I52:K52)</f>
+      <c r="R52" s="0" t="n">
+        <f aca="false">AVERAGE(O52:Q52)</f>
         <v>0.479000407437667</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="n">
         <v>0.4</v>
       </c>
@@ -4058,20 +4799,36 @@
         <v>0.4</v>
       </c>
       <c r="I53" s="0" t="n">
+        <v>0.257246376812</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0.265146159647</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0.308074981741</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">(I53+J53+K53)/3</f>
+        <v>0.276822506066667</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O53" s="0" t="n">
         <v>0.38768115942</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="P53" s="0" t="n">
         <v>0.537675919328</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="Q53" s="0" t="n">
         <v>0.594071156407</v>
       </c>
-      <c r="L53" s="0" t="n">
-        <f aca="false">AVERAGE(I53:K53)</f>
+      <c r="R53" s="0" t="n">
+        <f aca="false">AVERAGE(O53:Q53)</f>
         <v>0.506476078385</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4092,27 +4849,43 @@
         <v>0.5</v>
       </c>
       <c r="I54" s="0" t="n">
+        <v>0.235507246377</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0.320149902747</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>0.370417651904</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">(I54+J54+K54)/3</f>
+        <v>0.308691600342667</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O54" s="0" t="n">
         <v>0.409420289855</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="P54" s="0" t="n">
         <v>0.551391783536</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="Q54" s="0" t="n">
         <v>0.614639933908</v>
       </c>
-      <c r="L54" s="0" t="n">
-        <f aca="false">AVERAGE(I54:K54)</f>
+      <c r="R54" s="0" t="n">
+        <f aca="false">AVERAGE(O54:Q54)</f>
         <v>0.525150669099667</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="n">
         <v>0.6</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0.427536231884</v>
       </c>
-      <c r="D55" s="7" t="n">
+      <c r="D55" s="5" t="n">
         <v>0.634542896749</v>
       </c>
       <c r="E55" s="0" t="n">
@@ -4126,24 +4899,40 @@
         <v>0.6</v>
       </c>
       <c r="I55" s="0" t="n">
+        <v>0.257246376812</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0.377166125957</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>0.429582770769</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <f aca="false">(I55+J55+K55)/3</f>
+        <v>0.354665091179333</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O55" s="0" t="n">
         <v>0.38768115942</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="P55" s="0" t="n">
         <v>0.523627271534</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="Q55" s="0" t="n">
         <v>0.611922623158</v>
       </c>
-      <c r="L55" s="0" t="n">
-        <f aca="false">AVERAGE(I55:K55)</f>
+      <c r="R55" s="0" t="n">
+        <f aca="false">AVERAGE(O55:Q55)</f>
         <v>0.507743684704</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="C56" s="7" t="n">
+      <c r="C56" s="5" t="n">
         <v>0.514492753623</v>
       </c>
       <c r="D56" s="1" t="n">
@@ -4152,28 +4941,45 @@
       <c r="E56" s="0" t="n">
         <v>0.687023937356</v>
       </c>
-      <c r="F56" s="7" t="n">
+      <c r="F56" s="5" t="n">
         <f aca="false">(C56+D56+E56)/3</f>
         <v>0.610435182899333</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="G56" s="6"/>
+      <c r="H56" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56" s="4" t="n">
+        <v>0.300724637681</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>0.427948727817</v>
+      </c>
+      <c r="K56" s="4" t="n">
+        <v>0.49912060693</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <f aca="false">(I56+J56+K56)/3</f>
+        <v>0.409264657476</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O56" s="0" t="n">
         <v>0.409420289855</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="P56" s="0" t="n">
         <v>0.550447115747</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="Q56" s="0" t="n">
         <v>0.633475678536</v>
       </c>
-      <c r="L56" s="0" t="n">
-        <f aca="false">AVERAGE(I56:K56)</f>
+      <c r="R56" s="0" t="n">
+        <f aca="false">AVERAGE(O56:Q56)</f>
         <v>0.531114361379333</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="n">
         <v>0.8</v>
       </c>
@@ -4190,24 +4996,41 @@
         <f aca="false">(C57+D57+E57)/3</f>
         <v>0.605968232374</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="G57" s="6"/>
+      <c r="H57" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="I57" s="4" t="n">
+        <v>0.300724637681</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <v>0.548349875183</v>
+      </c>
+      <c r="K57" s="4" t="n">
+        <v>0.607481121846</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">(I57+J57+K57)/3</f>
+        <v>0.485518544903333</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O57" s="0" t="n">
         <v>0.38768115942</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="P57" s="0" t="n">
         <v>0.547300157758</v>
       </c>
-      <c r="K57" s="1" t="n">
+      <c r="Q57" s="1" t="n">
         <v>0.657542080178</v>
       </c>
-      <c r="L57" s="0" t="n">
-        <f aca="false">AVERAGE(I57:K57)</f>
+      <c r="R57" s="0" t="n">
+        <f aca="false">AVERAGE(O57:Q57)</f>
         <v>0.530841132452</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="n">
         <v>0.9</v>
       </c>
@@ -4228,16 +5051,32 @@
         <v>0.9</v>
       </c>
       <c r="I58" s="0" t="n">
+        <v>0.300724637681</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0.559638510515</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0.584190508718</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">(I58+J58+K58)/3</f>
+        <v>0.481517885638</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O58" s="0" t="n">
         <v>0.344202898551</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="P58" s="0" t="n">
         <v>0.523194636361</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="Q58" s="0" t="n">
         <v>0.625412970645</v>
       </c>
-      <c r="L58" s="0" t="n">
-        <f aca="false">AVERAGE(I58:K58)</f>
+      <c r="R58" s="0" t="n">
+        <f aca="false">AVERAGE(O58:Q58)</f>
         <v>0.497603501852333</v>
       </c>
     </row>
@@ -4249,6 +5088,9 @@
     <hyperlink ref="I1" r:id="rId4" display="NDCG@1"/>
     <hyperlink ref="J1" r:id="rId5" display="NDCG@3"/>
     <hyperlink ref="K1" r:id="rId6" display="NDCG@10"/>
+    <hyperlink ref="O1" r:id="rId7" display="NDCG@1"/>
+    <hyperlink ref="P1" r:id="rId8" display="NDCG@3"/>
+    <hyperlink ref="Q1" r:id="rId9" display="NDCG@10"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4278,15 +5120,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4670,7 +5512,7 @@
       <c r="B10" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="5" t="n">
         <v>0.474637681159</v>
       </c>
       <c r="D10" s="0" t="n">
@@ -4773,7 +5615,6 @@
         <f aca="false">MAX(E2:E11)</f>
         <v>0.65772461099</v>
       </c>
-      <c r="F12" s="6"/>
       <c r="H12" s="0" t="n">
         <f aca="false">MAX(H2:H11)</f>
         <v>0.409420289855</v>
@@ -4805,7 +5646,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,11 +6156,10 @@
         <f aca="false">MAX(O14:O23)</f>
         <v>0.685555929916</v>
       </c>
-      <c r="P24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5658,13 +6498,13 @@
       <c r="C33" s="1" t="n">
         <v>0.459420289855</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="5" t="n">
         <v>0.629868766713</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="5" t="n">
         <v>0.704347037936</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="5" t="n">
         <f aca="false">AVERAGE(C33:E33)</f>
         <v>0.597878698168</v>
       </c>
@@ -5806,7 +6646,6 @@
         <f aca="false">MAX(E26:E35)</f>
         <v>0.704347037936</v>
       </c>
-      <c r="F36" s="6"/>
       <c r="H36" s="0" t="n">
         <f aca="false">MAX(H26:H35)</f>
         <v>0.365942028986</v>
@@ -5834,7 +6673,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,7 +7171,7 @@
         <f aca="false">MAX(J38:J47)</f>
         <v>0.681578963188</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="1"/>
       <c r="M48" s="0" t="n">
         <f aca="false">MAX(M38:M47)</f>
         <v>0.409420289855</v>
@@ -6348,48 +7187,48 @@
     </row>
     <row r="50" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6738,32 +7577,32 @@
         <f aca="false">AVERAGE(C59:E59)</f>
         <v>0.542152846497</v>
       </c>
-      <c r="H59" s="5" t="n">
+      <c r="H59" s="1" t="n">
         <v>0.471014492754</v>
       </c>
-      <c r="I59" s="7" t="n">
+      <c r="I59" s="5" t="n">
         <v>0.660936919769</v>
       </c>
-      <c r="J59" s="5" t="n">
+      <c r="J59" s="1" t="n">
         <v>0.725602422694</v>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="K59" s="1" t="n">
         <f aca="false">AVERAGE(H59:J59)</f>
         <v>0.619184611739</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="M59" s="7" t="n">
+      <c r="M59" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N59" s="5" t="n">
+      <c r="N59" s="1" t="n">
         <v>0.642725304016</v>
       </c>
-      <c r="O59" s="7" t="n">
+      <c r="O59" s="5" t="n">
         <v>0.726662875036</v>
       </c>
-      <c r="P59" s="7" t="n">
+      <c r="P59" s="5" t="n">
         <f aca="false">AVERAGE(M59:O59)</f>
         <v>0.623129393017333</v>
       </c>
@@ -6902,7 +7741,6 @@
         <f aca="false">MAX(O52:O61)</f>
         <v>0.726662875036</v>
       </c>
-      <c r="P62" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6955,25 +7793,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,32 +8387,32 @@
       <c r="M11" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="N11" s="5" t="n">
         <v>0.38768115942</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="O11" s="5" t="n">
         <v>0.60019107876</v>
       </c>
-      <c r="P11" s="7" t="n">
+      <c r="P11" s="5" t="n">
         <v>0.639630177836</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="Q11" s="5" t="n">
         <v>0.672501870269</v>
       </c>
-      <c r="R11" s="7" t="n">
+      <c r="R11" s="5" t="n">
         <f aca="false">AVERAGE(N11:P11)</f>
         <v>0.542500805338667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7954,7 +8792,7 @@
       <c r="G19" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="5" t="n">
         <v>0.477536231884</v>
       </c>
       <c r="I19" s="0" t="n">
@@ -8013,19 +8851,19 @@
       <c r="G20" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="5" t="n">
         <v>0.477536231884</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0.586210775434</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="5" t="n">
         <v>0.600620175955</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>0.654483529172</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="5" t="n">
         <f aca="false">AVERAGE(H20:J20)</f>
         <v>0.554789061091</v>
       </c>
@@ -8075,13 +8913,13 @@
       <c r="H21" s="0" t="n">
         <v>0.43768115942</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="5" t="n">
         <v>0.586987664849</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0.59587230115</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="5" t="n">
         <v>0.657800466644</v>
       </c>
       <c r="L21" s="0" t="n">
@@ -8169,13 +9007,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8577,7 +9415,7 @@
       <c r="N30" s="0" t="n">
         <v>0.477536231884</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="O30" s="5" t="n">
         <v>0.632612494818</v>
       </c>
       <c r="P30" s="0" t="n">
@@ -8633,19 +9471,19 @@
       <c r="M31" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="N31" s="7" t="n">
+      <c r="N31" s="5" t="n">
         <v>0.48115942029</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>0.630737307596</v>
       </c>
-      <c r="P31" s="7" t="n">
+      <c r="P31" s="5" t="n">
         <v>0.680862590631</v>
       </c>
-      <c r="Q31" s="7" t="n">
+      <c r="Q31" s="5" t="n">
         <v>0.708575261218</v>
       </c>
-      <c r="R31" s="7" t="n">
+      <c r="R31" s="5" t="n">
         <f aca="false">AVERAGE(N31:P31)</f>
         <v>0.597586439505667</v>
       </c>
@@ -8770,13 +9608,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9143,7 +9981,7 @@
       <c r="C41" s="0" t="n">
         <v>0.611929989897</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="5" t="n">
         <v>0.660047118373</v>
       </c>
       <c r="E41" s="0" t="n">
@@ -9234,7 +10072,7 @@
       <c r="M42" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="N42" s="7" t="n">
+      <c r="N42" s="5" t="n">
         <v>0.459420289855</v>
       </c>
       <c r="O42" s="1" t="n">
@@ -9246,7 +10084,7 @@
       <c r="Q42" s="1" t="n">
         <v>0.658796613218</v>
       </c>
-      <c r="R42" s="7" t="n">
+      <c r="R42" s="5" t="n">
         <f aca="false">AVERAGE(N42:P42)</f>
         <v>0.567624292980667</v>
       </c>
@@ -9258,7 +10096,7 @@
       <c r="B43" s="0" t="n">
         <v>0.405072463768</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="5" t="n">
         <v>0.631846880431</v>
       </c>
       <c r="D43" s="0" t="n">
@@ -9371,13 +10209,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9835,7 +10673,7 @@
       <c r="M53" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="N53" s="7" t="n">
+      <c r="N53" s="5" t="n">
         <v>0.478260869565</v>
       </c>
       <c r="O53" s="1" t="n">
@@ -9847,7 +10685,7 @@
       <c r="Q53" s="0" t="n">
         <v>0.695670039893</v>
       </c>
-      <c r="R53" s="7" t="n">
+      <c r="R53" s="5" t="n">
         <f aca="false">AVERAGE(N53:P53)</f>
         <v>0.589157406581333</v>
       </c>
@@ -9859,10 +10697,10 @@
       <c r="B54" s="0" t="n">
         <v>0.434782608696</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="5" t="n">
         <v>0.638974479382</v>
       </c>
-      <c r="D54" s="7" t="n">
+      <c r="D54" s="5" t="n">
         <v>0.659001090821</v>
       </c>
       <c r="E54" s="0" t="n">
